--- a/team_specific_matrix/Iowa St._A.xlsx
+++ b/team_specific_matrix/Iowa St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2105263157894737</v>
+        <v>0.2076124567474048</v>
       </c>
       <c r="C2">
-        <v>0.5263157894736842</v>
+        <v>0.532871972318339</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02192982456140351</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1491228070175439</v>
+        <v>0.1418685121107267</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09210526315789473</v>
+        <v>0.09342560553633218</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02272727272727273</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C3">
-        <v>0.06060606060606061</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03787878787878788</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6666666666666666</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2121212121212121</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.7592592592592593</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1944444444444444</v>
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05128205128205128</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00641025641025641</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09615384615384616</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.358974358974359</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00641025641025641</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1602564102564103</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="R6">
-        <v>0.07692307692307693</v>
+        <v>0.06565656565656566</v>
       </c>
       <c r="S6">
-        <v>0.2435897435897436</v>
+        <v>0.2474747474747475</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.125</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05</v>
+        <v>0.04487179487179487</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03333333333333333</v>
+        <v>0.03205128205128205</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.175</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.008333333333333333</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1166666666666667</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="R7">
-        <v>0.075</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S7">
-        <v>0.4166666666666667</v>
+        <v>0.391025641025641</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1350210970464135</v>
+        <v>0.1321428571428571</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02109704641350211</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0759493670886076</v>
+        <v>0.075</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08860759493670886</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01265822784810127</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2025316455696203</v>
+        <v>0.2035714285714286</v>
       </c>
       <c r="R8">
-        <v>0.05485232067510549</v>
+        <v>0.06071428571428571</v>
       </c>
       <c r="S8">
-        <v>0.4092827004219409</v>
+        <v>0.4035714285714286</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1468531468531468</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01398601398601399</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04895104895104895</v>
+        <v>0.05</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1118881118881119</v>
+        <v>0.1277777777777778</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02797202797202797</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2027972027972028</v>
+        <v>0.2055555555555555</v>
       </c>
       <c r="R9">
-        <v>0.06293706293706294</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S9">
-        <v>0.3846153846153846</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1082251082251082</v>
+        <v>0.1115736885928393</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02597402597402598</v>
+        <v>0.03330557868442964</v>
       </c>
       <c r="E10">
-        <v>0.002164502164502165</v>
+        <v>0.001665278934221482</v>
       </c>
       <c r="F10">
-        <v>0.05194805194805195</v>
+        <v>0.05328892589508743</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1233766233766234</v>
+        <v>0.1207327227310575</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02056277056277056</v>
+        <v>0.0183180682764363</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2586580086580086</v>
+        <v>0.2547876769358868</v>
       </c>
       <c r="R10">
-        <v>0.08116883116883117</v>
+        <v>0.08159866777685262</v>
       </c>
       <c r="S10">
-        <v>0.3279220779220779</v>
+        <v>0.324729392173189</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1487179487179487</v>
+        <v>0.1478599221789883</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07692307692307693</v>
+        <v>0.0933852140077821</v>
       </c>
       <c r="K11">
-        <v>0.1897435897435897</v>
+        <v>0.1867704280155642</v>
       </c>
       <c r="L11">
-        <v>0.5692307692307692</v>
+        <v>0.5603112840466926</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01538461538461539</v>
+        <v>0.01167315175097276</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6864406779661016</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2203389830508475</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="K12">
-        <v>0.008474576271186441</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="L12">
-        <v>0.0423728813559322</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0423728813559322</v>
+        <v>0.03947368421052631</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7857142857142857</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2142857142857143</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01212121212121212</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1212121212121212</v>
+        <v>0.1121951219512195</v>
       </c>
       <c r="I15">
-        <v>0.07272727272727272</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="J15">
-        <v>0.3818181818181818</v>
+        <v>0.4097560975609756</v>
       </c>
       <c r="K15">
-        <v>0.07878787878787878</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06666666666666667</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2666666666666667</v>
+        <v>0.2585365853658537</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03496503496503497</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1468531468531468</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="I16">
-        <v>0.0979020979020979</v>
+        <v>0.09239130434782608</v>
       </c>
       <c r="J16">
-        <v>0.3986013986013986</v>
+        <v>0.4510869565217391</v>
       </c>
       <c r="K16">
-        <v>0.08391608391608392</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01398601398601399</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="N16">
-        <v>0.006993006993006993</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="O16">
-        <v>0.1048951048951049</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1118881118881119</v>
+        <v>0.1032608695652174</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03867403314917127</v>
+        <v>0.04366812227074236</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1160220994475138</v>
+        <v>0.1069868995633188</v>
       </c>
       <c r="I17">
-        <v>0.1022099447513812</v>
+        <v>0.1004366812227074</v>
       </c>
       <c r="J17">
-        <v>0.425414364640884</v>
+        <v>0.4497816593886463</v>
       </c>
       <c r="K17">
-        <v>0.1132596685082873</v>
+        <v>0.1135371179039301</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01933701657458563</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06629834254143646</v>
+        <v>0.05895196506550218</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1187845303867403</v>
+        <v>0.1091703056768559</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03361344537815126</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1260504201680672</v>
+        <v>0.1503267973856209</v>
       </c>
       <c r="I18">
         <v>0.1176470588235294</v>
       </c>
       <c r="J18">
-        <v>0.4705882352941176</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="K18">
-        <v>0.1008403361344538</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09243697478991597</v>
+        <v>0.08496732026143791</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02570379436964504</v>
+        <v>0.02465483234714004</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1738066095471236</v>
+        <v>0.1627218934911243</v>
       </c>
       <c r="I19">
-        <v>0.08200734394124846</v>
+        <v>0.08382642998027613</v>
       </c>
       <c r="J19">
-        <v>0.3892288861689107</v>
+        <v>0.3915187376725838</v>
       </c>
       <c r="K19">
-        <v>0.09424724602203183</v>
+        <v>0.1055226824457594</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.008567931456548347</v>
+        <v>0.009861932938856016</v>
       </c>
       <c r="N19">
-        <v>0.001223990208078335</v>
+        <v>0.0009861932938856016</v>
       </c>
       <c r="O19">
-        <v>0.07711138310893513</v>
+        <v>0.07988165680473373</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1481028151774786</v>
+        <v>0.141025641025641</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Iowa St._A.xlsx
+++ b/team_specific_matrix/Iowa St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2076124567474048</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C2">
-        <v>0.532871972318339</v>
+        <v>0.5248447204968945</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02422145328719723</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1418685121107267</v>
+        <v>0.1459627329192547</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09342560553633218</v>
+        <v>0.09316770186335403</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01818181818181818</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C3">
-        <v>0.05454545454545454</v>
+        <v>0.05</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05454545454545454</v>
+        <v>0.05</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6727272727272727</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05555555555555555</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7592592592592593</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1851851851851852</v>
+        <v>0.2068965517241379</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,13 +734,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06060606060606061</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005050505050505051</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3737373737373738</v>
+        <v>0.3852813852813853</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005050505050505051</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1515151515151515</v>
+        <v>0.1471861471861472</v>
       </c>
       <c r="R6">
-        <v>0.06565656565656566</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="S6">
-        <v>0.2474747474747475</v>
+        <v>0.2510822510822511</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1282051282051282</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04487179487179487</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03205128205128205</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1666666666666667</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01282051282051282</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1474358974358974</v>
+        <v>0.1609195402298851</v>
       </c>
       <c r="R7">
-        <v>0.07692307692307693</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="S7">
-        <v>0.391025641025641</v>
+        <v>0.3735632183908046</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1321428571428571</v>
+        <v>0.1226415094339623</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02142857142857143</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.075</v>
+        <v>0.08176100628930817</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08928571428571429</v>
+        <v>0.09748427672955975</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01428571428571429</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2035714285714286</v>
+        <v>0.1949685534591195</v>
       </c>
       <c r="R8">
-        <v>0.06071428571428571</v>
+        <v>0.05974842767295598</v>
       </c>
       <c r="S8">
-        <v>0.4035714285714286</v>
+        <v>0.4119496855345912</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1166666666666667</v>
+        <v>0.1191709844559585</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01666666666666667</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1277777777777778</v>
+        <v>0.1243523316062176</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02777777777777778</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2055555555555555</v>
+        <v>0.2020725388601036</v>
       </c>
       <c r="R9">
-        <v>0.06666666666666667</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="S9">
-        <v>0.3888888888888889</v>
+        <v>0.383419689119171</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1115736885928393</v>
+        <v>0.1114391143911439</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03330557868442964</v>
+        <v>0.03173431734317343</v>
       </c>
       <c r="E10">
-        <v>0.001665278934221482</v>
+        <v>0.001476014760147601</v>
       </c>
       <c r="F10">
-        <v>0.05328892589508743</v>
+        <v>0.05239852398523985</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1207327227310575</v>
+        <v>0.1195571955719557</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0183180682764363</v>
+        <v>0.02066420664206642</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2547876769358868</v>
+        <v>0.2501845018450184</v>
       </c>
       <c r="R10">
-        <v>0.08159866777685262</v>
+        <v>0.07970479704797048</v>
       </c>
       <c r="S10">
-        <v>0.324729392173189</v>
+        <v>0.3328413284132841</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1478599221789883</v>
+        <v>0.1573426573426573</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0933852140077821</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K11">
-        <v>0.1867704280155642</v>
+        <v>0.1958041958041958</v>
       </c>
       <c r="L11">
-        <v>0.5603112840466926</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01167315175097276</v>
+        <v>0.01048951048951049</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6842105263157895</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2236842105263158</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="K12">
-        <v>0.0131578947368421</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="L12">
-        <v>0.03947368421052631</v>
+        <v>0.0426829268292683</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03947368421052631</v>
+        <v>0.0426829268292683</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7777777777777778</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2222222222222222</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.00975609756097561</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1121951219512195</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="I15">
-        <v>0.07317073170731707</v>
+        <v>0.06926406926406926</v>
       </c>
       <c r="J15">
-        <v>0.4097560975609756</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="K15">
-        <v>0.06829268292682927</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06829268292682927</v>
+        <v>0.06926406926406926</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2585365853658537</v>
+        <v>0.2597402597402597</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03260869565217391</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1304347826086956</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="I16">
-        <v>0.09239130434782608</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J16">
-        <v>0.4510869565217391</v>
+        <v>0.446078431372549</v>
       </c>
       <c r="K16">
-        <v>0.07065217391304347</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0108695652173913</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="N16">
-        <v>0.0108695652173913</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="O16">
-        <v>0.09782608695652174</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1032608695652174</v>
+        <v>0.1029411764705882</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.04366812227074236</v>
+        <v>0.04536489151873768</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1069868995633188</v>
+        <v>0.1124260355029586</v>
       </c>
       <c r="I17">
-        <v>0.1004366812227074</v>
+        <v>0.09861932938856016</v>
       </c>
       <c r="J17">
-        <v>0.4497816593886463</v>
+        <v>0.4536489151873767</v>
       </c>
       <c r="K17">
-        <v>0.1135371179039301</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01746724890829694</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05895196506550218</v>
+        <v>0.0631163708086785</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1091703056768559</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0261437908496732</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1503267973856209</v>
+        <v>0.1597633136094675</v>
       </c>
       <c r="I18">
-        <v>0.1176470588235294</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="J18">
-        <v>0.4509803921568628</v>
+        <v>0.4556213017751479</v>
       </c>
       <c r="K18">
-        <v>0.1111111111111111</v>
+        <v>0.1183431952662722</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05882352941176471</v>
+        <v>0.05325443786982249</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08496732026143791</v>
+        <v>0.08284023668639054</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02465483234714004</v>
+        <v>0.02353966870095902</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1627218934911243</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="I19">
-        <v>0.08382642998027613</v>
+        <v>0.08195292066259809</v>
       </c>
       <c r="J19">
-        <v>0.3915187376725838</v>
+        <v>0.3958151700087184</v>
       </c>
       <c r="K19">
-        <v>0.1055226824457594</v>
+        <v>0.1054925893635571</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.009861932938856016</v>
+        <v>0.01220575414123801</v>
       </c>
       <c r="N19">
-        <v>0.0009861932938856016</v>
+        <v>0.0008718395815170009</v>
       </c>
       <c r="O19">
-        <v>0.07988165680473373</v>
+        <v>0.07933740191804708</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.141025641025641</v>
+        <v>0.1394943330427201</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Iowa St._A.xlsx
+++ b/team_specific_matrix/Iowa St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2142857142857143</v>
+        <v>0.218562874251497</v>
       </c>
       <c r="C2">
-        <v>0.5248447204968945</v>
+        <v>0.5179640718562875</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02173913043478261</v>
+        <v>0.02095808383233533</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1459627329192547</v>
+        <v>0.1467065868263473</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09316770186335403</v>
+        <v>0.09580838323353294</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01666666666666667</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C3">
-        <v>0.05</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6833333333333333</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2</v>
+        <v>0.1967213114754098</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05172413793103448</v>
+        <v>0.05</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7413793103448276</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2068965517241379</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05627705627705628</v>
+        <v>0.05394190871369295</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004329004329004329</v>
+        <v>0.004149377593360996</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09090909090909091</v>
+        <v>0.0912863070539419</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3852813852813853</v>
+        <v>0.3775933609958506</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004329004329004329</v>
+        <v>0.004149377593360996</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1471861471861472</v>
+        <v>0.1452282157676349</v>
       </c>
       <c r="R6">
-        <v>0.06060606060606061</v>
+        <v>0.05809128630705394</v>
       </c>
       <c r="S6">
-        <v>0.2510822510822511</v>
+        <v>0.2655601659751037</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1206896551724138</v>
+        <v>0.1270718232044199</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04597701149425287</v>
+        <v>0.04419889502762431</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05747126436781609</v>
+        <v>0.06077348066298342</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1551724137931035</v>
+        <v>0.1602209944751381</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01149425287356322</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1609195402298851</v>
+        <v>0.1602209944751381</v>
       </c>
       <c r="R7">
-        <v>0.07471264367816093</v>
+        <v>0.0718232044198895</v>
       </c>
       <c r="S7">
-        <v>0.3735632183908046</v>
+        <v>0.3646408839779006</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1226415094339623</v>
+        <v>0.1178247734138973</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01886792452830189</v>
+        <v>0.01812688821752266</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08176100628930817</v>
+        <v>0.08157099697885196</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09748427672955975</v>
+        <v>0.09969788519637462</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01257861635220126</v>
+        <v>0.01208459214501511</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1949685534591195</v>
+        <v>0.1933534743202417</v>
       </c>
       <c r="R8">
-        <v>0.05974842767295598</v>
+        <v>0.0634441087613293</v>
       </c>
       <c r="S8">
-        <v>0.4119496855345912</v>
+        <v>0.4138972809667674</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1191709844559585</v>
+        <v>0.1144278606965174</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0155440414507772</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05699481865284974</v>
+        <v>0.05472636815920398</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1243523316062176</v>
+        <v>0.1243781094527363</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02590673575129534</v>
+        <v>0.02487562189054726</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2020725388601036</v>
+        <v>0.2039800995024875</v>
       </c>
       <c r="R9">
-        <v>0.07253886010362694</v>
+        <v>0.06965174129353234</v>
       </c>
       <c r="S9">
-        <v>0.383419689119171</v>
+        <v>0.3930348258706468</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1114391143911439</v>
+        <v>0.1115849324804549</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03173431734317343</v>
+        <v>0.03198294243070363</v>
       </c>
       <c r="E10">
-        <v>0.001476014760147601</v>
+        <v>0.001421464108031272</v>
       </c>
       <c r="F10">
-        <v>0.05239852398523985</v>
+        <v>0.05330490405117271</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1195571955719557</v>
+        <v>0.1208244491826581</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02066420664206642</v>
+        <v>0.01990049751243781</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2501845018450184</v>
+        <v>0.2487562189054726</v>
       </c>
       <c r="R10">
-        <v>0.07970479704797048</v>
+        <v>0.07960199004975124</v>
       </c>
       <c r="S10">
-        <v>0.3328413284132841</v>
+        <v>0.3326226012793177</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1573426573426573</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09090909090909091</v>
+        <v>0.08754208754208755</v>
       </c>
       <c r="K11">
-        <v>0.1958041958041958</v>
+        <v>0.1986531986531987</v>
       </c>
       <c r="L11">
-        <v>0.5454545454545454</v>
+        <v>0.5387205387205387</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01048951048951049</v>
+        <v>0.01346801346801347</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6829268292682927</v>
+        <v>0.6845238095238095</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2195121951219512</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K12">
-        <v>0.01219512195121951</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="L12">
-        <v>0.0426829268292683</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0426829268292683</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7391304347826086</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2608695652173913</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.008658008658008658</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1168831168831169</v>
+        <v>0.1148936170212766</v>
       </c>
       <c r="I15">
-        <v>0.06926406926406926</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="J15">
-        <v>0.4155844155844156</v>
+        <v>0.4127659574468085</v>
       </c>
       <c r="K15">
-        <v>0.06060606060606061</v>
+        <v>0.05957446808510639</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06926406926406926</v>
+        <v>0.07234042553191489</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2597402597402597</v>
+        <v>0.2595744680851064</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.04411764705882353</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1274509803921569</v>
+        <v>0.1279620853080569</v>
       </c>
       <c r="I16">
-        <v>0.08333333333333333</v>
+        <v>0.08056872037914692</v>
       </c>
       <c r="J16">
-        <v>0.446078431372549</v>
+        <v>0.4454976303317535</v>
       </c>
       <c r="K16">
-        <v>0.08333333333333333</v>
+        <v>0.08056872037914692</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.009803921568627451</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="N16">
-        <v>0.009803921568627451</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="O16">
-        <v>0.09313725490196079</v>
+        <v>0.09004739336492891</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1029411764705882</v>
+        <v>0.1137440758293839</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.04536489151873768</v>
+        <v>0.04389312977099236</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1124260355029586</v>
+        <v>0.1106870229007634</v>
       </c>
       <c r="I17">
-        <v>0.09861932938856016</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="J17">
-        <v>0.4536489151873767</v>
+        <v>0.4503816793893129</v>
       </c>
       <c r="K17">
-        <v>0.106508875739645</v>
+        <v>0.1106870229007634</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01775147928994083</v>
+        <v>0.01717557251908397</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0631163708086785</v>
+        <v>0.06297709923664122</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1025641025641026</v>
+        <v>0.1049618320610687</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02366863905325444</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1597633136094675</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="I18">
-        <v>0.106508875739645</v>
+        <v>0.1028571428571429</v>
       </c>
       <c r="J18">
-        <v>0.4556213017751479</v>
+        <v>0.4628571428571429</v>
       </c>
       <c r="K18">
-        <v>0.1183431952662722</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05325443786982249</v>
+        <v>0.05142857142857143</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08284023668639054</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02353966870095902</v>
+        <v>0.02424749163879599</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1612903225806452</v>
+        <v>0.1622073578595318</v>
       </c>
       <c r="I19">
-        <v>0.08195292066259809</v>
+        <v>0.08361204013377926</v>
       </c>
       <c r="J19">
-        <v>0.3958151700087184</v>
+        <v>0.3988294314381271</v>
       </c>
       <c r="K19">
-        <v>0.1054925893635571</v>
+        <v>0.1045150501672241</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01220575414123801</v>
+        <v>0.0117056856187291</v>
       </c>
       <c r="N19">
-        <v>0.0008718395815170009</v>
+        <v>0.0008361204013377926</v>
       </c>
       <c r="O19">
-        <v>0.07933740191804708</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1394943330427201</v>
+        <v>0.137123745819398</v>
       </c>
     </row>
   </sheetData>
